--- a/calculoipcR_base2023/Resumen_Indices_2010_2023/resumen_indices_bases2010_2023.xlsx
+++ b/calculoipcR_base2023/Resumen_Indices_2010_2023/resumen_indices_bases2010_2023.xlsx
@@ -11,12 +11,13 @@
     <sheet name="ind_div" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="ind_rep_est" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="ind_reg_est" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ind_div_est" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">Mes</t>
   </si>
@@ -126,25 +127,22 @@
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">Base 2023 estacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base 2023 1 est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base 2023 2 est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base 2023 3 est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base 2023 4 est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base 2023 5 est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base 2023 6 est</t>
+    <t xml:space="preserve">Base 2023 est 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base 2023 est 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base 2023 est 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base 2023 est 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base 2023 est 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base 2023 est 6</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -1555,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -1649,42 +1647,42 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
         <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="n">
         <v>100.043230826463</v>
@@ -1725,7 +1723,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="n">
         <v>100.252045854198</v>
@@ -1766,7 +1764,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
         <v>100.012513027572</v>
@@ -1807,7 +1805,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
         <v>99.7135813335059</v>
@@ -1848,7 +1846,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="n">
         <v>100.054915259035</v>
@@ -1889,7 +1887,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="n">
         <v>100.10184936676</v>
@@ -1930,7 +1928,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="n">
         <v>99.8404565700881</v>
@@ -1971,7 +1969,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="n">
         <v>100.268742950157</v>
@@ -2008,6 +2006,594 @@
       </c>
       <c r="M9" t="n">
         <v>101.030942093925</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n">
+        <v>100.072747479646</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100.092997194959</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99.8875744155716</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99.88825872094</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100.083787550931</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100.094288939248</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100.16574948665</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100.128463828235</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100.781432510586</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100.798342559609</v>
+      </c>
+      <c r="L2" t="n">
+        <v>101.450295440963</v>
+      </c>
+      <c r="M2" t="n">
+        <v>101.438171963102</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="n">
+        <v>99.7803814076591</v>
+      </c>
+      <c r="C3" t="n">
+        <v>99.7803814076591</v>
+      </c>
+      <c r="D3" t="n">
+        <v>99.4081960774759</v>
+      </c>
+      <c r="E3" t="n">
+        <v>99.4081960774759</v>
+      </c>
+      <c r="F3" t="n">
+        <v>99.2086896286648</v>
+      </c>
+      <c r="G3" t="n">
+        <v>99.2086896286648</v>
+      </c>
+      <c r="H3" t="n">
+        <v>99.3857851414488</v>
+      </c>
+      <c r="I3" t="n">
+        <v>99.3857851414488</v>
+      </c>
+      <c r="J3" t="n">
+        <v>99.4285713646425</v>
+      </c>
+      <c r="K3" t="n">
+        <v>99.4285713646425</v>
+      </c>
+      <c r="L3" t="n">
+        <v>99.4786812858264</v>
+      </c>
+      <c r="M3" t="n">
+        <v>99.4786812858264</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="n">
+        <v>99.9596007481557</v>
+      </c>
+      <c r="C4" t="n">
+        <v>99.9596007481557</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100.287454737922</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100.287454737922</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100.348783769485</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100.348783769485</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100.398850610593</v>
+      </c>
+      <c r="I4" t="n">
+        <v>100.398850610593</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100.470972031571</v>
+      </c>
+      <c r="K4" t="n">
+        <v>100.470972031571</v>
+      </c>
+      <c r="L4" t="n">
+        <v>100.518972224453</v>
+      </c>
+      <c r="M4" t="n">
+        <v>100.518972224453</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="n">
+        <v>99.392958175447</v>
+      </c>
+      <c r="C5" t="n">
+        <v>99.392958175447</v>
+      </c>
+      <c r="D5" t="n">
+        <v>99.2740927476028</v>
+      </c>
+      <c r="E5" t="n">
+        <v>99.2740927476028</v>
+      </c>
+      <c r="F5" t="n">
+        <v>99.3029420632034</v>
+      </c>
+      <c r="G5" t="n">
+        <v>99.3029420632034</v>
+      </c>
+      <c r="H5" t="n">
+        <v>99.4591654195139</v>
+      </c>
+      <c r="I5" t="n">
+        <v>99.4591654195139</v>
+      </c>
+      <c r="J5" t="n">
+        <v>99.6320430451399</v>
+      </c>
+      <c r="K5" t="n">
+        <v>99.6320430451399</v>
+      </c>
+      <c r="L5" t="n">
+        <v>99.7072947642574</v>
+      </c>
+      <c r="M5" t="n">
+        <v>99.7072947642574</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="n">
+        <v>99.9165846409712</v>
+      </c>
+      <c r="C6" t="n">
+        <v>99.9165846409712</v>
+      </c>
+      <c r="D6" t="n">
+        <v>99.9310656403042</v>
+      </c>
+      <c r="E6" t="n">
+        <v>99.9310656403042</v>
+      </c>
+      <c r="F6" t="n">
+        <v>99.9427739217533</v>
+      </c>
+      <c r="G6" t="n">
+        <v>99.9427739217533</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100.014335379452</v>
+      </c>
+      <c r="I6" t="n">
+        <v>100.014335379452</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100.027458985528</v>
+      </c>
+      <c r="K6" t="n">
+        <v>100.027458985528</v>
+      </c>
+      <c r="L6" t="n">
+        <v>100.083574675262</v>
+      </c>
+      <c r="M6" t="n">
+        <v>100.083574675262</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="n">
+        <v>100.045341735735</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100.045341735735</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100.118638506527</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100.118638506527</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100.177163109967</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100.177163109967</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100.213393823099</v>
+      </c>
+      <c r="I7" t="n">
+        <v>100.213393823099</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100.388557181256</v>
+      </c>
+      <c r="K7" t="n">
+        <v>100.388557181256</v>
+      </c>
+      <c r="L7" t="n">
+        <v>100.552286255628</v>
+      </c>
+      <c r="M7" t="n">
+        <v>100.552286255628</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="n">
+        <v>100.815192462011</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100.815192462011</v>
+      </c>
+      <c r="D8" t="n">
+        <v>102.406064994045</v>
+      </c>
+      <c r="E8" t="n">
+        <v>102.406064994045</v>
+      </c>
+      <c r="F8" t="n">
+        <v>104.469827458756</v>
+      </c>
+      <c r="G8" t="n">
+        <v>104.469827458756</v>
+      </c>
+      <c r="H8" t="n">
+        <v>106.87740622814</v>
+      </c>
+      <c r="I8" t="n">
+        <v>106.87740622814</v>
+      </c>
+      <c r="J8" t="n">
+        <v>104.452032369466</v>
+      </c>
+      <c r="K8" t="n">
+        <v>104.452032369466</v>
+      </c>
+      <c r="L8" t="n">
+        <v>102.842830933194</v>
+      </c>
+      <c r="M8" t="n">
+        <v>102.842830933194</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="n">
+        <v>100.075527878562</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100.075527878562</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100.188071806034</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100.188071806034</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100.275722567837</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100.275722567837</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100.318903961135</v>
+      </c>
+      <c r="I9" t="n">
+        <v>100.318903961135</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100.265250184691</v>
+      </c>
+      <c r="K9" t="n">
+        <v>100.265250184691</v>
+      </c>
+      <c r="L9" t="n">
+        <v>100.409817020859</v>
+      </c>
+      <c r="M9" t="n">
+        <v>100.409817020859</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="n">
+        <v>99.9875123653959</v>
+      </c>
+      <c r="C10" t="n">
+        <v>99.9875123653959</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100.02255338417</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100.02255338417</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100.432463648866</v>
+      </c>
+      <c r="G10" t="n">
+        <v>100.432463648866</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100.219306951173</v>
+      </c>
+      <c r="I10" t="n">
+        <v>100.219306951173</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100.296606346646</v>
+      </c>
+      <c r="K10" t="n">
+        <v>100.296606346646</v>
+      </c>
+      <c r="L10" t="n">
+        <v>100.37498843508</v>
+      </c>
+      <c r="M10" t="n">
+        <v>100.37498843508</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="n">
+        <v>100.150496692753</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100.150496692753</v>
+      </c>
+      <c r="D11" t="n">
+        <v>100.374041866288</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100.374041866288</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100.487756458975</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100.487756458975</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100.487073717569</v>
+      </c>
+      <c r="I11" t="n">
+        <v>100.487073717569</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100.465987593244</v>
+      </c>
+      <c r="K11" t="n">
+        <v>100.465987593244</v>
+      </c>
+      <c r="L11" t="n">
+        <v>100.45990534133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>100.45990534133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="n">
+        <v>100.245229802319</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100.245229802319</v>
+      </c>
+      <c r="D12" t="n">
+        <v>100.673383570241</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100.673383570241</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100.854660318645</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100.854660318645</v>
+      </c>
+      <c r="H12" t="n">
+        <v>101.083505314064</v>
+      </c>
+      <c r="I12" t="n">
+        <v>101.083505314064</v>
+      </c>
+      <c r="J12" t="n">
+        <v>101.216187563618</v>
+      </c>
+      <c r="K12" t="n">
+        <v>101.216187563618</v>
+      </c>
+      <c r="L12" t="n">
+        <v>101.481390340988</v>
+      </c>
+      <c r="M12" t="n">
+        <v>101.481390340988</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100.023259744571</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100.023259744571</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100.369294779307</v>
+      </c>
+      <c r="G13" t="n">
+        <v>100.369294779307</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100.359535918365</v>
+      </c>
+      <c r="I13" t="n">
+        <v>100.359535918365</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100.304283755848</v>
+      </c>
+      <c r="K13" t="n">
+        <v>100.304283755848</v>
+      </c>
+      <c r="L13" t="n">
+        <v>100.464630454084</v>
+      </c>
+      <c r="M13" t="n">
+        <v>100.464630454084</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="n">
+        <v>99.9070228923033</v>
+      </c>
+      <c r="C14" t="n">
+        <v>99.9070228923033</v>
+      </c>
+      <c r="D14" t="n">
+        <v>99.8192104989366</v>
+      </c>
+      <c r="E14" t="n">
+        <v>99.8192104989366</v>
+      </c>
+      <c r="F14" t="n">
+        <v>99.7238424874374</v>
+      </c>
+      <c r="G14" t="n">
+        <v>99.7238424874374</v>
+      </c>
+      <c r="H14" t="n">
+        <v>99.9954054216796</v>
+      </c>
+      <c r="I14" t="n">
+        <v>99.9954054216796</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100.036886463529</v>
+      </c>
+      <c r="K14" t="n">
+        <v>100.036886463529</v>
+      </c>
+      <c r="L14" t="n">
+        <v>100.111302729049</v>
+      </c>
+      <c r="M14" t="n">
+        <v>100.111302729049</v>
       </c>
     </row>
   </sheetData>
